--- a/grupos/6ALCV - Estadisticos 20202.xlsx
+++ b/grupos/6ALCV - Estadisticos 20202.xlsx
@@ -2202,7 +2202,7 @@
         <v>9</v>
       </c>
       <c r="L21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="M21">
         <v>9</v>
@@ -2238,7 +2238,7 @@
         <v>9</v>
       </c>
       <c r="X21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y21">
         <v>9</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.300000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="I6">
         <v>0</v>

--- a/grupos/6ALCV - Estadisticos 20202.xlsx
+++ b/grupos/6ALCV - Estadisticos 20202.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="119">
   <si>
     <t>Materia</t>
   </si>
@@ -158,19 +158,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>Gaspar Velazco Juan Francisco</t>
+  </si>
+  <si>
     <t>Flores Ovalle Victor</t>
   </si>
   <si>
-    <t>Gaspar Velazco Juan Francisco</t>
+    <t>Flores González Ángel</t>
+  </si>
+  <si>
+    <t>Villanueva Morales Luis Arturo</t>
   </si>
   <si>
     <t>Rivera Serra Alma Lilian</t>
-  </si>
-  <si>
-    <t>Villanueva Morales Luis Arturo</t>
-  </si>
-  <si>
-    <t>Flores González Ángel</t>
   </si>
   <si>
     <t>Jiménez Nieto Enrique</t>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>46</v>
@@ -2848,19 +2848,19 @@
         <v>25</v>
       </c>
       <c r="D2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="G2">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="H2">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
         <v>47</v>
@@ -2880,19 +2880,19 @@
         <v>25</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>96</v>
+      </c>
+      <c r="G3">
         <v>4</v>
       </c>
-      <c r="F3">
-        <v>84</v>
-      </c>
-      <c r="G3">
-        <v>16</v>
-      </c>
       <c r="H3">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
         <v>48</v>
@@ -2956,7 +2956,7 @@
         <v>4</v>
       </c>
       <c r="H5">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>50</v>
@@ -2988,7 +2988,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -3020,7 +3020,7 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -3532,7 +3532,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3562,237 +3562,30 @@
         <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>18330051920237</v>
+        <v>18330051920272</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="D2" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
         <v>46</v>
       </c>
       <c r="G2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>18330051920237</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>18330051920248</v>
-      </c>
-      <c r="B4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" t="s">
         <v>5</v>
-      </c>
-      <c r="F4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>18330051920248</v>
-      </c>
-      <c r="B5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>18330051920272</v>
-      </c>
-      <c r="B6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>18330051920272</v>
-      </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>18330051920278</v>
-      </c>
-      <c r="B8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>18330051920278</v>
-      </c>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>90</v>
-      </c>
-      <c r="D9" t="s">
-        <v>112</v>
-      </c>
-      <c r="E9" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>18330051920245</v>
-      </c>
-      <c r="B10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>18330051920285</v>
-      </c>
-      <c r="B11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
